--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H2">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I2">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J2">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>12990.20418452316</v>
+        <v>10518.87646749387</v>
       </c>
       <c r="R2">
-        <v>51960.81673809265</v>
+        <v>42075.5058699755</v>
       </c>
       <c r="S2">
-        <v>0.2592839582404766</v>
+        <v>0.4784079722619728</v>
       </c>
       <c r="T2">
-        <v>0.1699456076609293</v>
+        <v>0.3775879119994556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H3">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I3">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J3">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>3.389696165730001</v>
+        <v>2.929811067498</v>
       </c>
       <c r="R3">
-        <v>20.33817699438</v>
+        <v>17.578866404988</v>
       </c>
       <c r="S3">
-        <v>6.7658200486962E-05</v>
+        <v>0.0001332504451634031</v>
       </c>
       <c r="T3">
-        <v>6.651904386813756E-05</v>
+        <v>0.0001577537173691659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H4">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I4">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J4">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>5365.983863898857</v>
+        <v>3424.189718217614</v>
       </c>
       <c r="R4">
-        <v>32195.90318339314</v>
+        <v>20545.13830930569</v>
       </c>
       <c r="S4">
-        <v>0.1071048242447079</v>
+        <v>0.1557352313048959</v>
       </c>
       <c r="T4">
-        <v>0.1053015074469178</v>
+        <v>0.1843732051594054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H5">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I5">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J5">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>83.34962734124251</v>
+        <v>157.1544820671382</v>
       </c>
       <c r="R5">
-        <v>333.39850936497</v>
+        <v>628.617928268553</v>
       </c>
       <c r="S5">
-        <v>0.001663655242667712</v>
+        <v>0.007147527336209204</v>
       </c>
       <c r="T5">
-        <v>0.001090429593377436</v>
+        <v>0.005641251984321887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H6">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I6">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J6">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>8820.852833971201</v>
+        <v>1318.450989331929</v>
       </c>
       <c r="R6">
-        <v>52925.11700382722</v>
+        <v>7910.705935991573</v>
       </c>
       <c r="S6">
-        <v>0.1760638713110984</v>
+        <v>0.05996433804335361</v>
       </c>
       <c r="T6">
-        <v>0.1730994956271997</v>
+        <v>0.0709911116943749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H7">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I7">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J7">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>3807.649014495288</v>
+        <v>5085.001684572779</v>
       </c>
       <c r="R7">
-        <v>22845.89408697173</v>
+        <v>30510.01010743667</v>
       </c>
       <c r="S7">
-        <v>0.07600052270502689</v>
+        <v>0.2312704548230874</v>
       </c>
       <c r="T7">
-        <v>0.07472090696221337</v>
+        <v>0.2737985146785832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>2.526643</v>
       </c>
       <c r="I8">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J8">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>198.0059507850293</v>
+        <v>185.5037855986175</v>
       </c>
       <c r="R8">
-        <v>1188.035704710176</v>
+        <v>1113.022713591705</v>
       </c>
       <c r="S8">
-        <v>0.003952190892879022</v>
+        <v>0.008436879184711846</v>
       </c>
       <c r="T8">
-        <v>0.003885648117841008</v>
+        <v>0.009988327264128143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>2.526643</v>
       </c>
       <c r="I9">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J9">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
         <v>0.05166816492133334</v>
@@ -1013,10 +1013,10 @@
         <v>0.465013484292</v>
       </c>
       <c r="S9">
-        <v>1.031294514353071E-06</v>
+        <v>2.349914659317361E-06</v>
       </c>
       <c r="T9">
-        <v>1.520896015874111E-06</v>
+        <v>4.173056674066085E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>2.526643</v>
       </c>
       <c r="I10">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J10">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>81.79215059100476</v>
+        <v>60.38669218144811</v>
       </c>
       <c r="R10">
-        <v>736.1293553190429</v>
+        <v>543.480229633033</v>
       </c>
       <c r="S10">
-        <v>0.00163256806875321</v>
+        <v>0.002746441128709009</v>
       </c>
       <c r="T10">
-        <v>0.002407620943244916</v>
+        <v>0.004877221577662783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>2.526643</v>
       </c>
       <c r="I11">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J11">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>1.270474426333</v>
+        <v>2.771470074521166</v>
       </c>
       <c r="R11">
-        <v>7.622846557998001</v>
+        <v>16.628820447127</v>
       </c>
       <c r="S11">
-        <v>2.535861895807536E-05</v>
+        <v>0.0001260489542427628</v>
       </c>
       <c r="T11">
-        <v>2.49316575783398E-05</v>
+        <v>0.0001492279525063306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>2.526643</v>
       </c>
       <c r="I12">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J12">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>134.4537258472201</v>
+        <v>23.25130924420733</v>
       </c>
       <c r="R12">
-        <v>1210.083532624981</v>
+        <v>209.261783197866</v>
       </c>
       <c r="S12">
-        <v>0.002683691013831957</v>
+        <v>0.001057490478411093</v>
       </c>
       <c r="T12">
-        <v>0.003957758830254775</v>
+        <v>0.001877926792446453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>2.526643</v>
       </c>
       <c r="I13">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J13">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>58.0389001328461</v>
+        <v>89.67564788678767</v>
       </c>
       <c r="R13">
-        <v>522.350101195615</v>
+        <v>807.0808309810891</v>
       </c>
       <c r="S13">
-        <v>0.001158454135485974</v>
+        <v>0.004078529204081247</v>
       </c>
       <c r="T13">
-        <v>0.001708423980455994</v>
+        <v>0.007242787923374585</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H14">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I14">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J14">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>287.222351208312</v>
+        <v>16.2729703242625</v>
       </c>
       <c r="R14">
-        <v>1148.889404833248</v>
+        <v>97.63782194557498</v>
       </c>
       <c r="S14">
-        <v>0.005732946692643627</v>
+        <v>0.0007401093414841184</v>
       </c>
       <c r="T14">
-        <v>0.003757614300478311</v>
+        <v>0.0008762072031773708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H15">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I15">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J15">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.074948514186</v>
+        <v>0.004532492486666667</v>
       </c>
       <c r="R15">
-        <v>0.449691085116</v>
+        <v>0.04079243238</v>
       </c>
       <c r="S15">
-        <v>1.495969358629594E-06</v>
+        <v>2.061418390585439E-07</v>
       </c>
       <c r="T15">
-        <v>1.47078182209779E-06</v>
+        <v>3.660735396822492E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H16">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I16">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J16">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>118.6455947914315</v>
+        <v>5.297308875277222</v>
       </c>
       <c r="R16">
-        <v>711.8735687485889</v>
+        <v>47.675779877495</v>
       </c>
       <c r="S16">
-        <v>0.00236816134745362</v>
+        <v>0.0002409263770040756</v>
       </c>
       <c r="T16">
-        <v>0.002328288772451926</v>
+        <v>0.0004278450800453675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H17">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I17">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J17">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>1.8429176013885</v>
+        <v>0.2431219941508333</v>
       </c>
       <c r="R17">
-        <v>7.371670405554</v>
+        <v>1.458731964905</v>
       </c>
       <c r="S17">
-        <v>3.678456193693736E-05</v>
+        <v>1.105740718539864E-05</v>
       </c>
       <c r="T17">
-        <v>2.411014847712245E-05</v>
+        <v>1.309074116654614E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H18">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I18">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J18">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>195.0351245174604</v>
+        <v>2.039677325776666</v>
       </c>
       <c r="R18">
-        <v>1170.210747104763</v>
+        <v>18.35709593199</v>
       </c>
       <c r="S18">
-        <v>0.003892893318879547</v>
+        <v>9.276636117070234E-05</v>
       </c>
       <c r="T18">
-        <v>0.003827348933148602</v>
+        <v>0.0001647375920982085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H19">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I19">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J19">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>84.18973920535748</v>
+        <v>7.866627369148333</v>
       </c>
       <c r="R19">
-        <v>505.138435232145</v>
+        <v>70.79964632233499</v>
       </c>
       <c r="S19">
-        <v>0.001680423842021372</v>
+        <v>0.0003577812953545824</v>
       </c>
       <c r="T19">
-        <v>0.001652130657628478</v>
+        <v>0.0006353599338237968</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H20">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I20">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J20">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N20">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O20">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P20">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q20">
-        <v>7458.432315655875</v>
+        <v>262.4371354229025</v>
       </c>
       <c r="R20">
-        <v>44750.59389393525</v>
+        <v>1049.74854169161</v>
       </c>
       <c r="S20">
-        <v>0.1488700120184389</v>
+        <v>0.01193587720056421</v>
       </c>
       <c r="T20">
-        <v>0.1463634975336506</v>
+        <v>0.009420501353131784</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H21">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I21">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J21">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P21">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q21">
-        <v>1.946221865616001</v>
+        <v>0.073096326044</v>
       </c>
       <c r="R21">
-        <v>17.515996790544</v>
+        <v>0.438577956264</v>
       </c>
       <c r="S21">
-        <v>3.884651093724166E-05</v>
+        <v>3.324486719715386E-06</v>
       </c>
       <c r="T21">
-        <v>5.728868222684441E-05</v>
+        <v>3.935822786455991E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H22">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I22">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J22">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N22">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O22">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P22">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q22">
-        <v>3080.923662729964</v>
+        <v>85.43065826189766</v>
       </c>
       <c r="R22">
-        <v>27728.31296456968</v>
+        <v>512.5839495713859</v>
       </c>
       <c r="S22">
-        <v>0.06149511362270363</v>
+        <v>0.003885463254025406</v>
       </c>
       <c r="T22">
-        <v>0.09068958673087235</v>
+        <v>0.004599956655095269</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H23">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I23">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J23">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N23">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O23">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P23">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q23">
-        <v>47.85587241195601</v>
+        <v>3.9208723688335</v>
       </c>
       <c r="R23">
-        <v>287.1352344717361</v>
+        <v>15.683489475334</v>
       </c>
       <c r="S23">
-        <v>0.0009552013076751073</v>
+        <v>0.0001783248054360445</v>
       </c>
       <c r="T23">
-        <v>0.0009391186468281409</v>
+        <v>0.0001407445001887092</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H24">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I24">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J24">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N24">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O24">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P24">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q24">
-        <v>5064.565028694388</v>
+        <v>32.894245113062</v>
       </c>
       <c r="R24">
-        <v>45581.0852582495</v>
+        <v>197.365470678372</v>
       </c>
       <c r="S24">
-        <v>0.1010885162968188</v>
+        <v>0.001496059883606335</v>
       </c>
       <c r="T24">
-        <v>0.1490797435133269</v>
+        <v>0.001771168627289511</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H25">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I25">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J25">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N25">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O25">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P25">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q25">
-        <v>2186.19292298902</v>
+        <v>126.866522279623</v>
       </c>
       <c r="R25">
-        <v>19675.73630690118</v>
+        <v>761.199133677738</v>
       </c>
       <c r="S25">
-        <v>0.04363632368652548</v>
+        <v>0.005770003655740544</v>
       </c>
       <c r="T25">
-        <v>0.06435243271303653</v>
+        <v>0.00683104303937247</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H26">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I26">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J26">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N26">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O26">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P26">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q26">
-        <v>11.84473288290133</v>
+        <v>282.6310513140275</v>
       </c>
       <c r="R26">
-        <v>71.06839729740801</v>
+        <v>1695.786307884165</v>
       </c>
       <c r="S26">
-        <v>0.0002364203966738898</v>
+        <v>0.01285431467659663</v>
       </c>
       <c r="T26">
-        <v>0.0002324398021892928</v>
+        <v>0.01521807992445702</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H27">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I27">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J27">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P27">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q27">
-        <v>0.003090794037333333</v>
+        <v>0.07872091517733334</v>
       </c>
       <c r="R27">
-        <v>0.027817146336</v>
+        <v>0.708488236596</v>
       </c>
       <c r="S27">
-        <v>6.169212590673893E-08</v>
+        <v>3.580298097517964E-06</v>
       </c>
       <c r="T27">
-        <v>9.098012953285312E-08</v>
+        <v>6.358012539627149E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H28">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I28">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J28">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N28">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O28">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P28">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q28">
-        <v>4.892813432260444</v>
+        <v>92.00434504095878</v>
       </c>
       <c r="R28">
-        <v>44.035320890344</v>
+        <v>828.039105368629</v>
       </c>
       <c r="S28">
-        <v>9.766036127131343E-05</v>
+        <v>0.004184440447262208</v>
       </c>
       <c r="T28">
-        <v>0.0001440240904020907</v>
+        <v>0.007430868634502762</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H29">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I29">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J29">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N29">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O29">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P29">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q29">
-        <v>0.07599988866400001</v>
+        <v>4.222574209575167</v>
       </c>
       <c r="R29">
-        <v>0.455999331984</v>
+        <v>25.335445257451</v>
       </c>
       <c r="S29">
-        <v>1.516954751343717E-06</v>
+        <v>0.0001920464767859234</v>
       </c>
       <c r="T29">
-        <v>1.491413885151401E-06</v>
+        <v>0.0002273616841090401</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H30">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I30">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J30">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N30">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O30">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P30">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q30">
-        <v>8.043033360649776</v>
+        <v>35.42537935229533</v>
       </c>
       <c r="R30">
-        <v>72.387300245848</v>
+        <v>318.8284141706579</v>
       </c>
       <c r="S30">
-        <v>0.0001605386255971332</v>
+        <v>0.001611178147677266</v>
       </c>
       <c r="T30">
-        <v>0.0002367534711631313</v>
+        <v>0.002861183786234689</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.849559</v>
+      </c>
+      <c r="I31">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J31">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>106.476041</v>
+      </c>
+      <c r="N31">
+        <v>319.428123</v>
+      </c>
+      <c r="O31">
+        <v>0.2479689906073331</v>
+      </c>
+      <c r="P31">
+        <v>0.3000368088518554</v>
+      </c>
+      <c r="Q31">
+        <v>136.6286006386397</v>
+      </c>
+      <c r="R31">
+        <v>1229.657405747757</v>
+      </c>
+      <c r="S31">
+        <v>0.006213991768656594</v>
+      </c>
+      <c r="T31">
+        <v>0.01103501342909067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.172363</v>
+      </c>
+      <c r="I32">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J32">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>220.2572175</v>
+      </c>
+      <c r="N32">
+        <v>440.514435</v>
+      </c>
+      <c r="O32">
+        <v>0.5129507012517006</v>
+      </c>
+      <c r="P32">
+        <v>0.4137724133030643</v>
+      </c>
+      <c r="Q32">
+        <v>12.6547315933175</v>
+      </c>
+      <c r="R32">
+        <v>75.928389559905</v>
+      </c>
+      <c r="S32">
+        <v>0.0005755485863711209</v>
+      </c>
+      <c r="T32">
+        <v>0.000681385558714436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.172363</v>
+      </c>
+      <c r="I33">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J33">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.184044</v>
+      </c>
+      <c r="O33">
+        <v>0.0001428715933923452</v>
+      </c>
+      <c r="P33">
+        <v>0.0001728713612618601</v>
+      </c>
+      <c r="Q33">
+        <v>0.003524708441333334</v>
+      </c>
+      <c r="R33">
+        <v>0.031722375972</v>
+      </c>
+      <c r="S33">
+        <v>1.603069133327971E-07</v>
+      </c>
+      <c r="T33">
+        <v>2.846783528626927E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.172363</v>
+      </c>
+      <c r="I34">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J34">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>71.69991033333334</v>
+      </c>
+      <c r="N34">
+        <v>215.099731</v>
+      </c>
+      <c r="O34">
+        <v>0.1669798597413381</v>
+      </c>
+      <c r="P34">
+        <v>0.202041812311349</v>
+      </c>
+      <c r="Q34">
+        <v>4.119470548261444</v>
+      </c>
+      <c r="R34">
+        <v>37.075234934353</v>
+      </c>
+      <c r="S34">
+        <v>0.0001873572294414649</v>
+      </c>
+      <c r="T34">
+        <v>0.0003327152046374142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.172363</v>
+      </c>
+      <c r="I35">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J35">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.2906945</v>
+      </c>
+      <c r="N35">
+        <v>6.581389</v>
+      </c>
+      <c r="O35">
+        <v>0.007663603810758729</v>
+      </c>
+      <c r="P35">
+        <v>0.006181856922387211</v>
+      </c>
+      <c r="Q35">
+        <v>0.1890646587011666</v>
+      </c>
+      <c r="R35">
+        <v>1.134387952207</v>
+      </c>
+      <c r="S35">
+        <v>8.598830899397076E-06</v>
+      </c>
+      <c r="T35">
+        <v>1.018006009469824E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G31">
-        <v>0.05038133333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.151144</v>
-      </c>
-      <c r="I31">
-        <v>0.0005654968557201504</v>
-      </c>
-      <c r="J31">
-        <v>0.0007169978261556076</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>68.91226833333333</v>
-      </c>
-      <c r="N31">
-        <v>206.736805</v>
-      </c>
-      <c r="O31">
-        <v>0.1225450231943603</v>
-      </c>
-      <c r="P31">
-        <v>0.1425360923817208</v>
-      </c>
-      <c r="Q31">
-        <v>3.471891961657778</v>
-      </c>
-      <c r="R31">
-        <v>31.24702765492</v>
-      </c>
-      <c r="S31">
-        <v>6.929882530056363E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001021980683864087</v>
+      <c r="G36">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.172363</v>
+      </c>
+      <c r="I36">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J36">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>27.607354</v>
+      </c>
+      <c r="N36">
+        <v>82.82206199999999</v>
+      </c>
+      <c r="O36">
+        <v>0.06429397299547716</v>
+      </c>
+      <c r="P36">
+        <v>0.07779423725008243</v>
+      </c>
+      <c r="Q36">
+        <v>1.586162119167333</v>
+      </c>
+      <c r="R36">
+        <v>14.275459072506</v>
+      </c>
+      <c r="S36">
+        <v>7.214008125816403E-05</v>
+      </c>
+      <c r="T36">
+        <v>0.0001281087576386723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.172363</v>
+      </c>
+      <c r="I37">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J37">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>106.476041</v>
+      </c>
+      <c r="N37">
+        <v>319.428123</v>
+      </c>
+      <c r="O37">
+        <v>0.2479689906073331</v>
+      </c>
+      <c r="P37">
+        <v>0.3000368088518554</v>
+      </c>
+      <c r="Q37">
+        <v>6.117509951627667</v>
+      </c>
+      <c r="R37">
+        <v>55.057589564649</v>
+      </c>
+      <c r="S37">
+        <v>0.0002782298604128308</v>
+      </c>
+      <c r="T37">
+        <v>0.0004940898476106886</v>
       </c>
     </row>
   </sheetData>
